--- a/INTLINE/data/134/DEUSTATIS/Harmonised index of consumer prices.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Harmonised index of consumer prices.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="66">
   <si>
     <t>Harmonised index of consumer prices: Germany, months,
 individual consumption by purpose (COICOP)</t>
@@ -210,7 +210,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:53:27</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:32:24</t>
   </si>
 </sst>
 </file>
@@ -20904,186 +20904,186 @@
       <c r="A348" t="s" s="13">
         <v>27</v>
       </c>
-      <c r="B348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="C348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="D348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="E348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="F348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="G348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="H348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="I348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="J348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="K348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="L348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="M348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="N348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="O348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="P348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="Q348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="R348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="S348" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="T348" t="s" s="10">
-        <v>63</v>
+      <c r="B348" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="C348" t="n" s="10">
+        <v>119.3</v>
+      </c>
+      <c r="D348" t="n" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="E348" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="F348" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="G348" t="n" s="10">
+        <v>130.9</v>
+      </c>
+      <c r="H348" t="n" s="10">
+        <v>127.9</v>
+      </c>
+      <c r="I348" t="n" s="10">
+        <v>186.7</v>
+      </c>
+      <c r="J348" t="n" s="10">
+        <v>109.4</v>
+      </c>
+      <c r="K348" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="L348" t="n" s="10">
+        <v>130.0</v>
+      </c>
+      <c r="M348" t="n" s="10">
+        <v>120.6</v>
+      </c>
+      <c r="N348" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="O348" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="P348" t="n" s="10">
+        <v>106.8</v>
+      </c>
+      <c r="Q348" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="R348" t="n" s="10">
+        <v>118.5</v>
+      </c>
+      <c r="S348" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="T348" t="n" s="10">
+        <v>116.1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="13">
         <v>28</v>
       </c>
-      <c r="B349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="C349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="D349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="E349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="F349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="G349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="H349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="I349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="J349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="K349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="L349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="M349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="N349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="O349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="P349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="Q349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="R349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="S349" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="T349" t="s" s="10">
-        <v>63</v>
+      <c r="B349" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="C349" t="n" s="10">
+        <v>120.4</v>
+      </c>
+      <c r="D349" t="n" s="10">
+        <v>108.3</v>
+      </c>
+      <c r="E349" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="F349" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="G349" t="n" s="10">
+        <v>132.7</v>
+      </c>
+      <c r="H349" t="n" s="10">
+        <v>132.6</v>
+      </c>
+      <c r="I349" t="n" s="10">
+        <v>161.9</v>
+      </c>
+      <c r="J349" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="K349" t="n" s="10">
+        <v>107.3</v>
+      </c>
+      <c r="L349" t="n" s="10">
+        <v>128.7</v>
+      </c>
+      <c r="M349" t="n" s="10">
+        <v>121.6</v>
+      </c>
+      <c r="N349" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="O349" t="n" s="10">
+        <v>95.0</v>
+      </c>
+      <c r="P349" t="n" s="10">
+        <v>109.7</v>
+      </c>
+      <c r="Q349" t="n" s="10">
+        <v>103.6</v>
+      </c>
+      <c r="R349" t="n" s="10">
+        <v>119.9</v>
+      </c>
+      <c r="S349" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="T349" t="n" s="10">
+        <v>116.9</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="13">
         <v>29</v>
       </c>
-      <c r="B350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="C350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="D350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="E350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="F350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="G350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="H350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="I350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="J350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="K350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="L350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="M350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="N350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="O350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="P350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="Q350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="R350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="S350" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="T350" t="s" s="10">
-        <v>63</v>
+      <c r="B350" t="n" s="10">
+        <v>125.2</v>
+      </c>
+      <c r="C350" t="n" s="10">
+        <v>121.1</v>
+      </c>
+      <c r="D350" t="n" s="10">
+        <v>109.0</v>
+      </c>
+      <c r="E350" t="n" s="10">
+        <v>121.1</v>
+      </c>
+      <c r="F350" t="n" s="10">
+        <v>112.1</v>
+      </c>
+      <c r="G350" t="n" s="10">
+        <v>135.2</v>
+      </c>
+      <c r="H350" t="n" s="10">
+        <v>138.0</v>
+      </c>
+      <c r="I350" t="n" s="10">
+        <v>166.5</v>
+      </c>
+      <c r="J350" t="n" s="10">
+        <v>111.5</v>
+      </c>
+      <c r="K350" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="L350" t="n" s="10">
+        <v>130.2</v>
+      </c>
+      <c r="M350" t="n" s="10">
+        <v>122.1</v>
+      </c>
+      <c r="N350" t="n" s="10">
+        <v>112.0</v>
+      </c>
+      <c r="O350" t="n" s="10">
+        <v>95.1</v>
+      </c>
+      <c r="P350" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="Q350" t="n" s="10">
+        <v>103.8</v>
+      </c>
+      <c r="R350" t="n" s="10">
+        <v>121.4</v>
+      </c>
+      <c r="S350" t="n" s="10">
+        <v>113.1</v>
+      </c>
+      <c r="T350" t="n" s="10">
+        <v>118.2</v>
       </c>
     </row>
     <row r="351">
@@ -21568,7 +21568,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:53:32&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:32:29&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Harmonised index of consumer prices.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Harmonised index of consumer prices.xlsx
@@ -210,7 +210,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:32:24</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:43:45</t>
   </si>
 </sst>
 </file>
@@ -21568,7 +21568,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:32:29&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:43:50&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>